--- a/vertices_matrix.xlsx
+++ b/vertices_matrix.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
